--- a/data/trans_dic/P62A$viudedad-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P62A$viudedad-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -739,54 +740,54 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,9; 32,4</t>
+          <t>4,61; 31,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>37,2; 70,99</t>
+          <t>38,68; 70,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,46; 38,94</t>
+          <t>17,61; 39,42</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,01; 33,54</t>
+          <t>10,59; 32,68</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,55; 14,17</t>
+          <t>1,59; 13,07</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,98; 32,8</t>
+          <t>14,37; 31,68</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>8,12; 20,06</t>
+          <t>8,08; 20,34</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4,72; 16,98</t>
+          <t>4,87; 16,84</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,83; 16,71</t>
+          <t>4,51; 18,15</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -869,7 +870,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,07</t>
+          <t>0,0; 4,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,54 +880,54 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,88; 26,05</t>
+          <t>11,89; 25,75</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>46,34; 69,13</t>
+          <t>45,09; 67,91</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>41,5; 63,18</t>
+          <t>41,8; 63,68</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>47,65; 69,28</t>
+          <t>47,33; 68,53</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,63; 14,34</t>
+          <t>5,73; 15,07</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,22; 28,79</t>
+          <t>17,1; 29,08</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>16,04; 27,84</t>
+          <t>15,47; 27,45</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>17,1; 28,71</t>
+          <t>16,39; 28,5</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>10,04; 18,18</t>
+          <t>10,13; 18,11</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1009,57 +1010,57 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,11</t>
+          <t>0,0; 16,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,36</t>
+          <t>0,0; 6,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>25,81; 41,78</t>
+          <t>25,93; 41,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>43,94; 67,64</t>
+          <t>43,82; 67,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>40,83; 65,91</t>
+          <t>42,12; 66,21</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>16,12; 36,46</t>
+          <t>16,18; 37,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,84; 15,0</t>
+          <t>6,27; 15,53</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>19,32; 34,71</t>
+          <t>18,84; 33,81</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>20,23; 35,1</t>
+          <t>19,78; 34,88</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,88; 19,02</t>
+          <t>7,82; 19,54</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>17,23; 27,22</t>
+          <t>17,18; 26,62</t>
         </is>
       </c>
     </row>
@@ -1159,47 +1160,47 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,37</t>
+          <t>0,0; 5,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>31,25; 55,7</t>
+          <t>32,06; 55,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,61; 49,52</t>
+          <t>30,91; 49,58</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>30,25; 54,52</t>
+          <t>29,75; 54,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,6; 10,58</t>
+          <t>2,47; 10,32</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>14,49; 28,06</t>
+          <t>14,75; 28,96</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>14,53; 25,39</t>
+          <t>14,45; 26,02</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>12,55; 26,47</t>
+          <t>13,17; 25,93</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,53; 6,27</t>
+          <t>1,57; 6,68</t>
         </is>
       </c>
     </row>
@@ -1299,54 +1300,54 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,15; 22,94</t>
+          <t>4,54; 21,65</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>23,45; 57,01</t>
+          <t>23,8; 59,91</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>22,4; 50,73</t>
+          <t>22,59; 49,77</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>10,01; 32,98</t>
+          <t>9,94; 33,12</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,39; 16,33</t>
+          <t>5,45; 16,58</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>10,13; 27,29</t>
+          <t>9,91; 27,32</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>10,54; 25,78</t>
+          <t>10,54; 25,48</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>4,37; 15,67</t>
+          <t>4,57; 15,65</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,27; 15,95</t>
+          <t>6,56; 16,27</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,7 +1425,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,38</t>
+          <t>0,0; 8,34</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1439,54 +1440,54 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>17,78; 31,87</t>
+          <t>17,32; 32,36</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>43,65; 73,52</t>
+          <t>42,53; 72,73</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>45,96; 69,6</t>
+          <t>46,02; 71,25</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>43,01; 74,81</t>
+          <t>42,19; 73,74</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>8,03; 20,34</t>
+          <t>7,7; 20,08</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>19,26; 35,81</t>
+          <t>18,89; 36,25</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>18,21; 33,69</t>
+          <t>18,47; 34,08</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>14,79; 32,08</t>
+          <t>14,94; 31,55</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>15,15; 25,47</t>
+          <t>15,33; 24,79</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1579,47 +1580,47 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>8,95; 19,76</t>
+          <t>8,8; 18,84</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>40,16; 58,56</t>
+          <t>40,42; 58,51</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>36,52; 53,35</t>
+          <t>35,8; 52,72</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>28,56; 45,05</t>
+          <t>27,08; 44,14</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,9; 11,23</t>
+          <t>0,91; 11,4</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>17,67; 28,21</t>
+          <t>17,53; 27,58</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>16,99; 26,84</t>
+          <t>16,8; 26,62</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>13,29; 22,27</t>
+          <t>13,5; 23,26</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>2,05; 12,73</t>
+          <t>2,18; 12,91</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1705,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,36</t>
+          <t>0,0; 2,98</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1719,47 +1720,47 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>9,66; 17,96</t>
+          <t>9,4; 17,91</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>31,3; 49,73</t>
+          <t>32,06; 49,94</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>30,59; 47,07</t>
+          <t>30,24; 46,26</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>23,93; 38,27</t>
+          <t>23,37; 38,63</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>3,04; 8,06</t>
+          <t>3,06; 8,08</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>13,64; 23,31</t>
+          <t>13,98; 23,12</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>12,96; 21,38</t>
+          <t>13,27; 21,3</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>10,84; 18,44</t>
+          <t>10,33; 17,87</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>7,3; 12,52</t>
+          <t>7,21; 12,23</t>
         </is>
       </c>
     </row>
@@ -1844,12 +1845,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,94</t>
+          <t>0,0; 0,91</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,27</t>
+          <t>0,0; 1,42</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1859,47 +1860,47 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>13,99; 18,85</t>
+          <t>13,98; 18,76</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>45,35; 53,77</t>
+          <t>44,97; 53,3</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>39,83; 47,17</t>
+          <t>39,81; 47,18</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>32,11; 39,55</t>
+          <t>31,94; 39,75</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>3,29; 8,72</t>
+          <t>3,17; 8,94</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>19,41; 23,81</t>
+          <t>19,62; 24,17</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>18,14; 22,27</t>
+          <t>18,24; 22,3</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>14,3; 18,16</t>
+          <t>14,29; 18,06</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>7,11; 13,0</t>
+          <t>7,22; 12,97</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que, al menos, recibe una pensión de viudedad</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>3556</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>19499</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>18883</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>10997</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1633</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>19498</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>18883</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>10997</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>5189</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1742</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2052</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1889</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1118; 7535</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>13738; 24984</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>12115; 27125</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>5824; 17967</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>496; 4070</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>12685; 27978</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>11704; 29470</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>5518; 19064</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>2499; 10054</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>964</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>23961</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>45545</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>46562</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>54049</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>11261</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>45545</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>47525</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>54049</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>35222</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1965</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5442</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1938</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>16036; 34716</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>35711; 53786</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>37153; 56601</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>43369; 62792</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>6990; 18391</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>34214; 58203</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>34217; 60723</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>39379; 68448</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>26015; 46512</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>2075</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>935</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>30298</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>37004</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>40418</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>20595</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>8185</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>37004</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>42493</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>21530</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>38483</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1835</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 13282</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5538</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>23795; 37675</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>29123; 45039</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>31826; 50026</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>12928; 29776</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>5254; 13007</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>26595; 47732</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>31207; 55035</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>13277; 33186</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>30151; 46726</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>1034</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>28246</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>40196</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>32198</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>4367</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>28246</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>40196</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>32198</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>5401</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1764</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2087</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1832</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0; 4443</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>20786; 36291</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>31123; 49927</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>23037; 42458</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1993; 8326</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>19882; 39053</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>29346; 52838</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>22915; 45121</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>2500; 10673</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>3638</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>13969</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>16526</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>11234</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>4171</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>13969</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>16526</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>11233</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>7810</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1731</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2076</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1799</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1426; 6798</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>8316; 20936</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>10621; 23403</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>5684; 18941</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>2269; 6907</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>7946; 21918</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>10222; 24709</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>5667; 19389</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>4794; 11883</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1061</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>19359</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>27925</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>34766</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>25978</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>8045</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>28986</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>34766</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>25978</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>27404</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5269</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1977</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1816</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>13845; 25866</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>20213; 34567</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>27661; 42827</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>18686; 32663</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>4616; 12037</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>20917; 40145</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>24829; 45817</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>17668; 37305</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>21443; 34679</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>21261</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>59038</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>66837</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>54442</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>14221</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>59038</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>66837</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>54442</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>35482</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1864</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2119</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2047</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>13971; 29894</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>48066; 69582</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>53755; 79159</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>41348; 67400</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>3146; 39196</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>45896; 72183</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>51949; 82329</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>41348; 71261</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>10954; 64883</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>965</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>26497</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>52280</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>59163</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>54985</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>9092</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>53245</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>59162</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>54985</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>35588</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>0; 5004</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2171</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1924</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>18945; 36112</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>41241; 64245</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>46831; 71631</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>41819; 69125</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>5335; 14095</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>41491; 68629</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>46371; 74450</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>40554; 70132</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>27113; 46016</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>3039</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>935</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>129604</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>283506</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>323350</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>264478</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>60976</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>285531</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>326389</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>265412</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>190581</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>0; 6720</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>0; 12367</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>0; 5579</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>112018; 150339</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>259080; 307049</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>297014; 352025</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>235428; 293005</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>29687; 83784</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>257740; 317638</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>294999; 360593</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>234046; 295889</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>125638; 225476</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>